--- a/BackTest/2020-01-15 BackTest ADA.xlsx
+++ b/BackTest/2020-01-15 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-255981.84034317</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-255981.84034317</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>41.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-255981.84034317</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -565,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,14 +583,10 @@
         <v>-266722.93834317</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>41.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -638,19 +616,11 @@
         <v>-175168.72594317</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,19 +649,11 @@
         <v>-175156.72594317</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="J8" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -723,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -762,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -798,19 +748,11 @@
         <v>-175626.00344317</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>41.89</v>
-      </c>
-      <c r="J11" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -839,19 +781,11 @@
         <v>-174726.00344317</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>41.78</v>
-      </c>
-      <c r="J12" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -880,19 +814,11 @@
         <v>-174726.00344317</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -921,19 +847,11 @@
         <v>-59932.93394316996</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="J14" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -962,19 +880,11 @@
         <v>-60923.89844316996</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>41.95</v>
-      </c>
-      <c r="J15" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1003,19 +913,11 @@
         <v>-41849.02958289997</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>41.78</v>
-      </c>
-      <c r="J16" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1047,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1083,19 +979,11 @@
         <v>-45261.81378289997</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>41.95</v>
-      </c>
-      <c r="J18" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1127,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1163,19 +1045,11 @@
         <v>-51234.57328289997</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="J20" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1204,19 +1078,11 @@
         <v>-49039.18358289997</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1245,19 +1111,11 @@
         <v>-50515.34738289997</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>41.92</v>
-      </c>
-      <c r="J22" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1289,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1325,19 +1177,11 @@
         <v>-49325.59158289997</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="J24" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1366,19 +1210,11 @@
         <v>-28840.40438289997</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>41.92</v>
-      </c>
-      <c r="J25" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1410,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1446,19 +1276,11 @@
         <v>-16964.76858289997</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>41.72</v>
-      </c>
-      <c r="J27" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1487,19 +1309,11 @@
         <v>-28939.02188289998</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>41.73</v>
-      </c>
-      <c r="J28" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1528,19 +1342,11 @@
         <v>-28927.02188289998</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="J29" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1569,19 +1375,11 @@
         <v>-33249.79898289998</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="J30" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1610,19 +1408,11 @@
         <v>-34292.05238289998</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>41.72</v>
-      </c>
-      <c r="J31" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1651,19 +1441,11 @@
         <v>-34292.05238289998</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>41.71</v>
-      </c>
-      <c r="J32" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1692,19 +1474,11 @@
         <v>-2684.900712059978</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>41.71</v>
-      </c>
-      <c r="J33" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1733,19 +1507,11 @@
         <v>-5386.900712059978</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>41.85</v>
-      </c>
-      <c r="J34" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1774,19 +1540,11 @@
         <v>-5386.900712059978</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>41.71</v>
-      </c>
-      <c r="J35" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1815,19 +1573,11 @@
         <v>24613.09928794002</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>41.71</v>
-      </c>
-      <c r="J36" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1856,19 +1606,11 @@
         <v>24985.47148794002</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>41.74</v>
-      </c>
-      <c r="J37" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1897,19 +1639,11 @@
         <v>51779.38278794002</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="J38" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1938,19 +1672,11 @@
         <v>51779.38278794002</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>42</v>
-      </c>
-      <c r="J39" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1982,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2021,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2060,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2096,17 +1804,11 @@
         <v>77063.33088794001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2135,17 +1837,11 @@
         <v>77194.87244607002</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2174,17 +1870,11 @@
         <v>65827.11564607001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2213,17 +1903,11 @@
         <v>140081.36594607</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2252,17 +1936,11 @@
         <v>230517.77548794</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2291,17 +1969,11 @@
         <v>181914.06668794</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2330,17 +2002,11 @@
         <v>181455.29428794</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2369,17 +2035,11 @@
         <v>181534.57592447</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2408,17 +2068,11 @@
         <v>49124.38432447004</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2447,17 +2101,11 @@
         <v>49363.10472447004</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2486,17 +2134,11 @@
         <v>80629.63152447004</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2525,17 +2167,11 @@
         <v>82654.55487514003</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2564,17 +2200,11 @@
         <v>-252385.25792486</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2603,17 +2233,11 @@
         <v>-253608.20792486</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2642,17 +2266,11 @@
         <v>-253608.20792486</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2681,17 +2299,11 @@
         <v>-251745.72886139</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2720,17 +2332,11 @@
         <v>-251388.55526139</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2759,17 +2365,11 @@
         <v>-304703.58246139</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2798,17 +2398,11 @@
         <v>-890982.9510613901</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2837,17 +2431,11 @@
         <v>-846529.0636613901</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2876,17 +2464,11 @@
         <v>-835643.4636613901</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2915,17 +2497,11 @@
         <v>-785643.4636613901</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2954,17 +2530,11 @@
         <v>-795990.0703613901</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2993,17 +2563,11 @@
         <v>-795990.0703613901</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3032,17 +2596,11 @@
         <v>-783526.3075613901</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3071,17 +2629,11 @@
         <v>-775605.8695613901</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3110,17 +2662,11 @@
         <v>-775605.8695613901</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3149,17 +2695,11 @@
         <v>-765605.8695613901</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3188,17 +2728,11 @@
         <v>-768005.8695613901</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3227,17 +2761,11 @@
         <v>-761417.3695613901</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3266,19 +2794,13 @@
         <v>-803884.5530613902</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
-        <v>1.005765550239235</v>
+        <v>1</v>
       </c>
       <c r="M73" t="inlineStr"/>
     </row>
@@ -3305,7 +2827,7 @@
         <v>-838134.5667613902</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3338,7 +2860,7 @@
         <v>-838612.9032613902</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3371,7 +2893,7 @@
         <v>-838612.9032613902</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3404,7 +2926,7 @@
         <v>-838512.9032613902</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3437,7 +2959,7 @@
         <v>-839074.6045613901</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3470,7 +2992,7 @@
         <v>-827120.4331613901</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3503,7 +3025,7 @@
         <v>-521022.4719613901</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3536,7 +3058,7 @@
         <v>-644012.5732613901</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3569,7 +3091,7 @@
         <v>-644766.0667613901</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3602,7 +3124,7 @@
         <v>-644766.0667613901</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3635,7 +3157,7 @@
         <v>-644337.1233613901</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3668,7 +3190,7 @@
         <v>-644793.7568613901</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3701,7 +3223,7 @@
         <v>-644793.7568613901</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3734,7 +3256,7 @@
         <v>-639100.21576139</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3767,7 +3289,7 @@
         <v>-811953.5375613901</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3800,7 +3322,7 @@
         <v>-975304.9593613901</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3833,7 +3355,7 @@
         <v>-973720.9593613901</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3866,7 +3388,7 @@
         <v>-973720.9593613901</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3899,7 +3421,7 @@
         <v>-958404.6460613901</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3932,7 +3454,7 @@
         <v>-958404.6460613901</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3965,7 +3487,7 @@
         <v>-957745.5736613901</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3998,7 +3520,7 @@
         <v>-990779.4838613902</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4031,7 +3553,7 @@
         <v>-988455.0676613902</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4064,7 +3586,7 @@
         <v>-988455.0676613902</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4097,7 +3619,7 @@
         <v>-988455.0676613902</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4130,7 +3652,7 @@
         <v>-990392.7321613901</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4163,7 +3685,7 @@
         <v>-990392.7321613901</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4196,7 +3718,7 @@
         <v>-990392.7321613901</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4229,7 +3751,7 @@
         <v>-998466.7321613901</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4262,7 +3784,7 @@
         <v>-998466.7321613901</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4295,7 +3817,7 @@
         <v>-998406.7321613901</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4328,7 +3850,7 @@
         <v>-987406.7321613901</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4361,7 +3883,7 @@
         <v>-999696.4230613902</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4394,7 +3916,7 @@
         <v>-999696.4230613902</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4427,7 +3949,7 @@
         <v>-999044.4230613902</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4460,7 +3982,7 @@
         <v>-1001850.42306139</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4493,7 +4015,7 @@
         <v>-988686.2355613902</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4526,7 +4048,7 @@
         <v>-988686.2355613902</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4559,7 +4081,7 @@
         <v>-980766.2216613902</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4592,7 +4114,7 @@
         <v>-63406717.27136139</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4625,7 +4147,7 @@
         <v>-63412819.40906139</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4658,7 +4180,7 @@
         <v>-63413807.02166139</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4691,7 +4213,7 @@
         <v>-63525979.48436139</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4757,7 +4279,7 @@
         <v>-64331681.05306139</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4790,7 +4312,7 @@
         <v>-64331418.37056139</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4823,7 +4345,7 @@
         <v>-64331418.37056139</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4856,7 +4378,7 @@
         <v>-64332252.02116139</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4889,7 +4411,7 @@
         <v>-64332252.02116139</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4922,7 +4444,7 @@
         <v>-64325851.24006139</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4955,7 +4477,7 @@
         <v>-64325851.24006139</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4988,7 +4510,7 @@
         <v>-64326645.75836139</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5021,7 +4543,7 @@
         <v>-64318595.75836139</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5054,7 +4576,7 @@
         <v>-64318595.75836139</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5087,7 +4609,7 @@
         <v>-64338593.11166139</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -6143,11 +5665,17 @@
         <v>-64684095.02889361</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>42.25</v>
+      </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6180,7 +5708,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6213,7 +5745,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6242,11 +5778,15 @@
         <v>-64596222.93419361</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6279,7 +5819,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6312,7 +5856,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6345,7 +5893,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6374,11 +5926,17 @@
         <v>-64608559.36289361</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>42.3</v>
+      </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6407,11 +5965,17 @@
         <v>-64690386.72519361</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>42.3</v>
+      </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6440,11 +6004,17 @@
         <v>-64688026.00753545</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>42.21</v>
+      </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6473,11 +6043,17 @@
         <v>-64710194.00743545</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>42.36</v>
+      </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6506,11 +6082,17 @@
         <v>-64710194.00743545</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>42.24</v>
+      </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6539,11 +6121,17 @@
         <v>-64710194.00743545</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>42.24</v>
+      </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6572,11 +6160,17 @@
         <v>-64760256.82863545</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>42.24</v>
+      </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6605,11 +6199,17 @@
         <v>-64758256.82863545</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>42.22</v>
+      </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6640,9 +6240,15 @@
       <c r="H175" t="n">
         <v>1</v>
       </c>
-      <c r="I175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>42.25</v>
+      </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6673,9 +6279,15 @@
       <c r="H176" t="n">
         <v>1</v>
       </c>
-      <c r="I176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>42.38</v>
+      </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6704,11 +6316,17 @@
         <v>-64888974.90533545</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>42.21</v>
+      </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6739,9 +6357,15 @@
       <c r="H178" t="n">
         <v>1</v>
       </c>
-      <c r="I178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>42.21</v>
+      </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6772,9 +6396,15 @@
       <c r="H179" t="n">
         <v>1</v>
       </c>
-      <c r="I179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>42.23</v>
+      </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6805,9 +6435,15 @@
       <c r="H180" t="n">
         <v>1</v>
       </c>
-      <c r="I180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>42.22</v>
+      </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6838,9 +6474,15 @@
       <c r="H181" t="n">
         <v>1</v>
       </c>
-      <c r="I181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>42.24</v>
+      </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6871,9 +6513,15 @@
       <c r="H182" t="n">
         <v>1</v>
       </c>
-      <c r="I182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>42.23</v>
+      </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6904,9 +6552,15 @@
       <c r="H183" t="n">
         <v>1</v>
       </c>
-      <c r="I183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>42.23</v>
+      </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6937,9 +6591,15 @@
       <c r="H184" t="n">
         <v>1</v>
       </c>
-      <c r="I184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>42.38</v>
+      </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6968,11 +6628,17 @@
         <v>-64893201.69343545</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>42.22</v>
+      </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7001,11 +6667,17 @@
         <v>-64893201.69343545</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>42.22</v>
+      </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7034,11 +6706,17 @@
         <v>-65130622.13343545</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>42.22</v>
+      </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7067,11 +6745,17 @@
         <v>-65130622.13343545</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>42.21</v>
+      </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7100,11 +6784,17 @@
         <v>-65130622.13343545</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>42.21</v>
+      </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7133,11 +6823,17 @@
         <v>-65129423.23673545</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>42.21</v>
+      </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7168,9 +6864,15 @@
       <c r="H191" t="n">
         <v>1</v>
       </c>
-      <c r="I191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>42.22</v>
+      </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7201,9 +6903,15 @@
       <c r="H192" t="n">
         <v>1</v>
       </c>
-      <c r="I192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>42.21</v>
+      </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7232,11 +6940,17 @@
         <v>-65262366.67113545</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>42.21</v>
+      </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7265,11 +6979,17 @@
         <v>-65262366.67113545</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>42.2</v>
+      </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7298,11 +7018,17 @@
         <v>-65262366.67113545</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>42.2</v>
+      </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7333,9 +7059,15 @@
       <c r="H196" t="n">
         <v>1</v>
       </c>
-      <c r="I196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>42.2</v>
+      </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7364,11 +7096,17 @@
         <v>-65248725.59220708</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>42.16</v>
+      </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7397,11 +7135,17 @@
         <v>-65305748.00680708</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>42.43</v>
+      </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7430,11 +7174,17 @@
         <v>-65305429.73420708</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>42.17</v>
+      </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7463,11 +7213,17 @@
         <v>-65307199.73420708</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>42.4</v>
+      </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7496,11 +7252,17 @@
         <v>-65307199.73420708</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>42.3</v>
+      </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7529,11 +7291,17 @@
         <v>-65307199.73420708</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>42.3</v>
+      </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7562,11 +7330,17 @@
         <v>-65307199.73420708</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>42.3</v>
+      </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7595,11 +7369,17 @@
         <v>-65283723.60748118</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>42.3</v>
+      </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7628,11 +7408,17 @@
         <v>-65283906.16298118</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7661,11 +7447,17 @@
         <v>-65258046.34748118</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>42.3</v>
+      </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7694,11 +7486,17 @@
         <v>-65258046.34748118</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>42.4</v>
+      </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7727,11 +7525,17 @@
         <v>-65218877.27308118</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>42.4</v>
+      </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7760,11 +7564,17 @@
         <v>-65218935.27308118</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>42.43</v>
+      </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7793,11 +7603,17 @@
         <v>-65225752.00278118</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>42.41</v>
+      </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7826,11 +7642,17 @@
         <v>-65209314.67888118</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>42.4</v>
+      </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7859,11 +7681,17 @@
         <v>-65277501.90911862</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>42.6</v>
+      </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7892,11 +7720,17 @@
         <v>-65283265.90911862</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7925,11 +7759,17 @@
         <v>-65283265.90911862</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>42.3</v>
+      </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7958,11 +7798,17 @@
         <v>-65283188.28911863</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>42.3</v>
+      </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7991,11 +7837,17 @@
         <v>-65283188.28911863</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8024,11 +7876,17 @@
         <v>-65283188.28911863</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8057,11 +7915,17 @@
         <v>-65283188.28911863</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8090,11 +7954,17 @@
         <v>-65283188.28911863</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8123,11 +7993,17 @@
         <v>-65233220.91651863</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8156,11 +8032,17 @@
         <v>-65170331.41425607</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>42.52</v>
+      </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8189,11 +8071,17 @@
         <v>-65196675.17635607</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>42.59</v>
+      </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8222,11 +8110,17 @@
         <v>-65194425.45755607</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>42.37</v>
+      </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8255,11 +8149,17 @@
         <v>-65189425.45755607</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>42.48</v>
+      </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8288,11 +8188,17 @@
         <v>-65195858.35755607</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>42.65</v>
+      </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8321,11 +8227,17 @@
         <v>-65195858.35755607</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8354,11 +8266,17 @@
         <v>-65195858.35755607</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8387,11 +8305,17 @@
         <v>-65197078.40525607</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8420,11 +8344,17 @@
         <v>-65197078.40525607</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>42.48</v>
+      </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8453,11 +8383,17 @@
         <v>-65197078.40525607</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>42.48</v>
+      </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8486,11 +8422,17 @@
         <v>-65195336.30080203</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>42.48</v>
+      </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8519,11 +8461,17 @@
         <v>-65191983.79500203</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>42.65</v>
+      </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8552,11 +8500,17 @@
         <v>-65296905.89963224</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>42.67</v>
+      </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8585,11 +8539,17 @@
         <v>-65296893.89963224</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>42.6</v>
+      </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8622,7 +8582,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8655,7 +8619,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8688,7 +8656,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8717,11 +8689,17 @@
         <v>-65296893.89963224</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8750,11 +8728,17 @@
         <v>-65296893.89963224</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8783,11 +8767,17 @@
         <v>-65321445.41873224</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8816,11 +8806,17 @@
         <v>-65321341.39251502</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>42.6</v>
+      </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8849,11 +8845,17 @@
         <v>-65327362.95971502</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>42.72</v>
+      </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8882,11 +8884,17 @@
         <v>-65357017.95971502</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>42.62</v>
+      </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8915,11 +8923,17 @@
         <v>-65357017.95971502</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>42.6</v>
+      </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8948,11 +8962,17 @@
         <v>-65354682.32741502</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>42.6</v>
+      </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8981,11 +9001,17 @@
         <v>-65393936.52741502</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>42.61</v>
+      </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9014,11 +9040,17 @@
         <v>-65376770.97781502</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>42.6</v>
+      </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9047,11 +9079,17 @@
         <v>-65377941.73631503</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>42.61</v>
+      </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9080,11 +9118,17 @@
         <v>-65374939.73631503</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>42.6</v>
+      </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9117,7 +9161,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9146,11 +9194,17 @@
         <v>-65374981.03701503</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>42.58</v>
+      </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9179,11 +9233,17 @@
         <v>-65351412.93101503</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>42.59</v>
+      </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9212,11 +9272,17 @@
         <v>-65351412.93101503</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9245,11 +9311,17 @@
         <v>-65351412.93101503</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9278,11 +9350,17 @@
         <v>-65342289.62851503</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>42.7</v>
+      </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9311,11 +9389,17 @@
         <v>-65470863.39021502</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>42.72</v>
+      </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9344,11 +9428,17 @@
         <v>-65470863.39021502</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>42.71</v>
+      </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9377,11 +9467,17 @@
         <v>-65397842.5707913</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>42.71</v>
+      </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9410,11 +9506,17 @@
         <v>-65430695.1934913</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>42.95</v>
+      </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9443,11 +9545,17 @@
         <v>-65430695.1934913</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>42.8</v>
+      </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9476,11 +9584,17 @@
         <v>-65430695.1934913</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>42.8</v>
+      </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9509,11 +9623,17 @@
         <v>-65430695.1934913</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>42.8</v>
+      </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9542,11 +9662,17 @@
         <v>-65312674.3923913</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>42.8</v>
+      </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9575,11 +9701,17 @@
         <v>-65458108.5023913</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>43</v>
+      </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9612,7 +9744,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9641,11 +9777,17 @@
         <v>-65454142.0205913</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>42.91</v>
+      </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9674,11 +9816,17 @@
         <v>-65453682.63129129</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>43.02</v>
+      </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9707,11 +9855,17 @@
         <v>-65408833.26629129</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9740,11 +9894,17 @@
         <v>-65408833.26629129</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>43.25</v>
+      </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9773,11 +9933,15 @@
         <v>-65408833.26629129</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9806,11 +9970,17 @@
         <v>-65418833.26629129</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>43.25</v>
+      </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9839,11 +10009,17 @@
         <v>-65418833.26629129</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>43.05</v>
+      </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9872,11 +10048,17 @@
         <v>-65413090.15749129</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>43.05</v>
+      </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9905,11 +10087,17 @@
         <v>-65413090.15749129</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>43.06</v>
+      </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9938,11 +10126,17 @@
         <v>-65409551.61099129</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>43.06</v>
+      </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9971,11 +10165,17 @@
         <v>-65443537.40909129</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>43.07</v>
+      </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10004,11 +10204,17 @@
         <v>-65443537.40909129</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>43.06</v>
+      </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10037,11 +10243,17 @@
         <v>-65443537.40909129</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>43.06</v>
+      </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10070,11 +10282,17 @@
         <v>-65443537.40909129</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>43.06</v>
+      </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10103,11 +10321,17 @@
         <v>-65537381.7766913</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>43.06</v>
+      </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10136,11 +10360,17 @@
         <v>-65551043.2269913</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>43.04</v>
+      </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10169,11 +10399,17 @@
         <v>-65551043.2269913</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>43.03</v>
+      </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10202,11 +10438,17 @@
         <v>-65551043.2269913</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>43.03</v>
+      </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10235,11 +10477,17 @@
         <v>-65487305.4703913</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>43.03</v>
+      </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10268,11 +10516,17 @@
         <v>-65487305.4703913</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>43.22</v>
+      </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10301,11 +10555,17 @@
         <v>-65487505.4703913</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>43.22</v>
+      </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10334,11 +10594,17 @@
         <v>-65487455.5980913</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10367,11 +10633,17 @@
         <v>-65511806.1781913</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>43.21</v>
+      </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10400,11 +10672,17 @@
         <v>-65510846.1781913</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>43.1</v>
+      </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10433,11 +10711,17 @@
         <v>-65515846.1781913</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>43.22</v>
+      </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10466,11 +10750,17 @@
         <v>-65541548.16569129</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>43.12</v>
+      </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10499,11 +10789,17 @@
         <v>-65541950.98909129</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>43.09</v>
+      </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10532,11 +10828,17 @@
         <v>-65541950.98909129</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>43.08</v>
+      </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10565,11 +10867,17 @@
         <v>-65565160.25739129</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>43.08</v>
+      </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10598,11 +10906,17 @@
         <v>-65565160.25739129</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>43.03</v>
+      </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10631,11 +10945,17 @@
         <v>-65603356.21659129</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>43.03</v>
+      </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10664,11 +10984,17 @@
         <v>-65603356.21659129</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>42.98</v>
+      </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10697,11 +11023,17 @@
         <v>-65640897.46429129</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>42.98</v>
+      </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10730,11 +11062,17 @@
         <v>-65678696.77139129</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>42.93</v>
+      </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10763,11 +11101,17 @@
         <v>-65678696.77139129</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>42.85</v>
+      </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10796,11 +11140,17 @@
         <v>-65678696.77139129</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>42.85</v>
+      </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10829,11 +11179,17 @@
         <v>-65678696.77139129</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>42.85</v>
+      </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10862,11 +11218,17 @@
         <v>-65678593.61447392</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>42.85</v>
+      </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10895,11 +11257,17 @@
         <v>-65687374.23697393</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>43.08</v>
+      </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10928,11 +11296,17 @@
         <v>-65680804.49077392</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>42.87</v>
+      </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10961,11 +11335,17 @@
         <v>-65680804.49077392</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>43.08</v>
+      </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10994,11 +11374,17 @@
         <v>-65681311.45507392</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>43.08</v>
+      </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11027,11 +11413,17 @@
         <v>-65681297.74127392</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>42.87</v>
+      </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11060,11 +11452,17 @@
         <v>-65692690.07897393</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>43.04</v>
+      </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11093,11 +11491,17 @@
         <v>-65692690.07897393</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>42.88</v>
+      </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11126,11 +11530,17 @@
         <v>-65689845.56457393</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>42.88</v>
+      </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11159,11 +11569,17 @@
         <v>-65689845.56457393</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>43.05</v>
+      </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11196,7 +11612,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11229,7 +11649,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11262,7 +11686,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11291,11 +11719,17 @@
         <v>-65690116.92167393</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>42.88</v>
+      </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11328,7 +11762,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11361,7 +11799,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11394,7 +11836,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11427,7 +11873,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11460,7 +11910,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11493,7 +11947,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11526,7 +11984,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11559,7 +12021,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11592,7 +12058,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11625,7 +12095,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11658,7 +12132,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11691,7 +12169,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11724,7 +12206,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11757,7 +12243,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11790,7 +12280,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11823,7 +12317,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11856,7 +12354,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11889,7 +12391,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11922,7 +12428,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11955,7 +12465,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11988,7 +12502,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12021,7 +12539,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12054,7 +12576,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12087,7 +12613,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12120,7 +12650,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12153,7 +12687,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12186,7 +12724,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12219,7 +12761,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12252,7 +12798,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12285,7 +12835,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12318,7 +12872,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12351,7 +12909,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12384,7 +12946,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12417,7 +12983,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12450,7 +13020,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12483,7 +13057,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12516,7 +13094,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12549,7 +13131,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12582,7 +13168,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12615,7 +13205,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12648,7 +13242,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12681,7 +13279,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12714,7 +13316,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12747,7 +13353,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12780,7 +13390,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12813,7 +13427,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12846,7 +13464,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12879,7 +13501,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12912,7 +13538,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12945,7 +13575,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12978,7 +13612,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13011,7 +13649,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13044,7 +13686,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13077,7 +13723,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13106,11 +13756,17 @@
         <v>-65951614.06127395</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>42.85</v>
+      </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13139,11 +13795,17 @@
         <v>-65953864.06127395</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>42.85</v>
+      </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13172,11 +13834,17 @@
         <v>-65953864.06127395</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>42.8</v>
+      </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13205,11 +13873,17 @@
         <v>-65953864.06127395</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>42.8</v>
+      </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13238,11 +13912,17 @@
         <v>-65953864.06127395</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>42.8</v>
+      </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13271,11 +13951,17 @@
         <v>-65916387.51577395</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>42.8</v>
+      </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13304,11 +13990,17 @@
         <v>-65916387.51577395</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>42.83</v>
+      </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13337,11 +14029,17 @@
         <v>-65913861.72207395</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>42.83</v>
+      </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13370,11 +14068,17 @@
         <v>-65913861.72207395</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>42.99</v>
+      </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13407,7 +14111,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13440,7 +14148,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13473,7 +14185,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13506,7 +14222,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13539,7 +14259,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13572,7 +14296,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13605,7 +14333,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13638,7 +14370,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13671,7 +14407,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13704,7 +14444,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13737,7 +14481,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13770,7 +14518,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13803,7 +14555,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13836,7 +14592,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13869,7 +14629,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13902,7 +14666,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13935,7 +14703,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13968,7 +14740,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14001,7 +14777,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14034,7 +14814,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14067,7 +14851,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14100,7 +14888,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14133,7 +14925,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14166,7 +14962,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14199,7 +14999,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14232,7 +15036,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14265,7 +15073,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14298,7 +15110,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14331,7 +15147,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14364,7 +15184,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14397,7 +15221,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14430,7 +15258,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14463,7 +15295,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14496,7 +15332,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14529,7 +15369,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14562,7 +15406,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14595,7 +15443,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14628,7 +15480,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14661,7 +15517,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14694,7 +15554,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14727,7 +15591,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14760,7 +15628,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14793,7 +15665,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14826,7 +15702,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14859,7 +15739,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14892,7 +15776,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14925,7 +15813,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14958,7 +15850,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14991,7 +15887,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15024,7 +15924,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15057,7 +15961,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15090,7 +15998,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15123,7 +16035,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15156,7 +16072,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15189,7 +16109,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15222,7 +16146,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15255,13 +16183,17 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
       <c r="M436" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest ADA.xlsx
+++ b/BackTest/2020-01-15 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1804,7 +1804,7 @@
         <v>77063.33088794001</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>181534.57592447</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>49124.38432447004</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>49363.10472447004</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>80629.63152447004</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>82654.55487514003</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-252385.25792486</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-253608.20792486</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-253608.20792486</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-251745.72886139</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-251388.55526139</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-304703.58246139</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-890982.9510613901</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-846529.0636613901</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-835643.4636613901</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-785643.4636613901</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-795990.0703613901</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-795990.0703613901</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-783526.3075613901</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-775605.8695613901</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-639100.21576139</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-975304.9593613901</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-973720.9593613901</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-973720.9593613901</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-958404.6460613901</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-958404.6460613901</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-957745.5736613901</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-63525979.48436139</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-64331681.05306139</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-64331418.37056139</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-64331418.37056139</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-64332252.02116139</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-64332252.02116139</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-64325851.24006139</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-64325851.24006139</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-64326645.75836139</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-64318595.75836139</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-64318595.75836139</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-64338593.11166139</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-64714342.35823585</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5665,17 +5665,11 @@
         <v>-64684095.02889361</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>42.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5708,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5745,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5782,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5819,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5856,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5893,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5926,17 +5896,11 @@
         <v>-64608559.36289361</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>42.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5965,17 +5929,11 @@
         <v>-64690386.72519361</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>42.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6004,17 +5962,11 @@
         <v>-64688026.00753545</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>42.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6043,17 +5995,11 @@
         <v>-64710194.00743545</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>42.36</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6082,17 +6028,11 @@
         <v>-64710194.00743545</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>42.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6121,17 +6061,11 @@
         <v>-64710194.00743545</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>42.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6168,7 +6102,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L173" t="n">
@@ -6277,11 +6211,9 @@
         <v>-64888974.90533545</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>42.38</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
@@ -6316,11 +6248,9 @@
         <v>-64888974.90533545</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>42.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -6394,11 +6324,9 @@
         <v>-64894938.37073544</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>42.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
@@ -6433,11 +6361,9 @@
         <v>-64866273.03723545</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>42.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
@@ -6550,11 +6476,9 @@
         <v>-64866136.24783545</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>42.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
@@ -6589,20 +6513,16 @@
         <v>-64893201.69343545</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>42.38</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
@@ -6628,17 +6548,11 @@
         <v>-64893201.69343545</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>42.22</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6667,17 +6581,11 @@
         <v>-64893201.69343545</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>42.22</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6706,17 +6614,11 @@
         <v>-65130622.13343545</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>42.22</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6745,17 +6647,11 @@
         <v>-65130622.13343545</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>42.21</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6784,17 +6680,11 @@
         <v>-65130622.13343545</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>42.21</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6823,17 +6713,11 @@
         <v>-65129423.23673545</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>42.21</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6862,17 +6746,11 @@
         <v>-65163235.75303545</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>42.22</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6901,17 +6779,11 @@
         <v>-65163235.75303545</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>42.21</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6940,17 +6812,11 @@
         <v>-65262366.67113545</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>42.21</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6979,17 +6845,11 @@
         <v>-65262366.67113545</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>42.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7018,17 +6878,11 @@
         <v>-65262366.67113545</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>42.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7057,17 +6911,11 @@
         <v>-65280759.67113545</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>42.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7096,17 +6944,11 @@
         <v>-65248725.59220708</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>42.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7143,7 +6985,7 @@
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L198" t="n">
@@ -7213,11 +7055,9 @@
         <v>-65307199.73420708</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>42.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
@@ -7408,11 +7248,9 @@
         <v>-65283906.16298118</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>42.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
@@ -7486,11 +7324,9 @@
         <v>-65258046.34748118</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>42.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
@@ -7525,11 +7361,9 @@
         <v>-65218877.27308118</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>42.4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
@@ -7564,11 +7398,9 @@
         <v>-65218935.27308118</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>42.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
@@ -7681,20 +7513,16 @@
         <v>-65277501.90911862</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>42.6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
@@ -7720,17 +7548,11 @@
         <v>-65283265.90911862</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>42.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7764,12 +7586,10 @@
       <c r="I214" t="n">
         <v>42.3</v>
       </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7798,15 +7618,15 @@
         <v>-65283188.28911863</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
         <v>42.3</v>
       </c>
-      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L215" t="n">
@@ -7837,15 +7657,15 @@
         <v>-65283188.28911863</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>42.3</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L216" t="n">
@@ -7876,17 +7696,11 @@
         <v>-65283188.28911863</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>42.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7915,17 +7729,11 @@
         <v>-65283188.28911863</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>42.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7954,17 +7762,11 @@
         <v>-65283188.28911863</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>42.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7993,17 +7795,11 @@
         <v>-65233220.91651863</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>42.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8032,17 +7828,11 @@
         <v>-65170331.41425607</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>42.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8071,17 +7861,11 @@
         <v>-65196675.17635607</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>42.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8110,17 +7894,11 @@
         <v>-65194425.45755607</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>42.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8149,17 +7927,11 @@
         <v>-65189425.45755607</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>42.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8188,17 +7960,11 @@
         <v>-65195858.35755607</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>42.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8227,17 +7993,11 @@
         <v>-65195858.35755607</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>42.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8266,17 +8026,11 @@
         <v>-65195858.35755607</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>42.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8305,17 +8059,11 @@
         <v>-65197078.40525607</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>42.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8344,17 +8092,11 @@
         <v>-65197078.40525607</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>42.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8383,17 +8125,11 @@
         <v>-65197078.40525607</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>42.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8422,17 +8158,11 @@
         <v>-65195336.30080203</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>42.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8461,17 +8191,11 @@
         <v>-65191983.79500203</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>42.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8500,17 +8224,11 @@
         <v>-65296905.89963224</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>42.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8539,17 +8257,11 @@
         <v>-65296893.89963224</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>42.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8582,11 +8294,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8619,11 +8327,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8656,11 +8360,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8689,17 +8389,11 @@
         <v>-65296893.89963224</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>42.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8728,17 +8422,11 @@
         <v>-65296893.89963224</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>42.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8767,17 +8455,11 @@
         <v>-65321445.41873224</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>42.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8806,17 +8488,11 @@
         <v>-65321341.39251502</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>42.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8845,17 +8521,11 @@
         <v>-65327362.95971502</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>42.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8884,17 +8554,11 @@
         <v>-65357017.95971502</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>42.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8923,17 +8587,11 @@
         <v>-65357017.95971502</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>42.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8962,17 +8620,11 @@
         <v>-65354682.32741502</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>42.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9001,17 +8653,11 @@
         <v>-65393936.52741502</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>42.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9040,17 +8686,11 @@
         <v>-65376770.97781502</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>42.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9079,17 +8719,11 @@
         <v>-65377941.73631503</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>42.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9118,17 +8752,11 @@
         <v>-65374939.73631503</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>42.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9161,11 +8789,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9194,17 +8818,11 @@
         <v>-65374981.03701503</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>42.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9233,17 +8851,11 @@
         <v>-65351412.93101503</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>42.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9272,17 +8884,11 @@
         <v>-65351412.93101503</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>42.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9311,17 +8917,11 @@
         <v>-65351412.93101503</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>42.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9350,17 +8950,11 @@
         <v>-65342289.62851503</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>42.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9389,17 +8983,11 @@
         <v>-65470863.39021502</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>42.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9428,17 +9016,11 @@
         <v>-65470863.39021502</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>42.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9467,17 +9049,11 @@
         <v>-65397842.5707913</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>42.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9506,17 +9082,11 @@
         <v>-65430695.1934913</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>42.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9545,17 +9115,11 @@
         <v>-65430695.1934913</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>42.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9584,17 +9148,11 @@
         <v>-65430695.1934913</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>42.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9623,17 +9181,11 @@
         <v>-65430695.1934913</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>42.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9662,17 +9214,11 @@
         <v>-65312674.3923913</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>42.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9701,17 +9247,11 @@
         <v>-65458108.5023913</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9744,11 +9284,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9777,17 +9313,11 @@
         <v>-65454142.0205913</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>42.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9816,17 +9346,11 @@
         <v>-65453682.63129129</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>43.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9855,17 +9379,11 @@
         <v>-65408833.26629129</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>43.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9894,17 +9412,11 @@
         <v>-65408833.26629129</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>43.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9937,11 +9449,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9970,17 +9478,11 @@
         <v>-65418833.26629129</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>43.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10009,17 +9511,11 @@
         <v>-65418833.26629129</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>43.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10048,17 +9544,11 @@
         <v>-65413090.15749129</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>43.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10087,17 +9577,11 @@
         <v>-65413090.15749129</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>43.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10126,17 +9610,11 @@
         <v>-65409551.61099129</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>43.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10165,17 +9643,11 @@
         <v>-65443537.40909129</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>43.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10204,17 +9676,11 @@
         <v>-65443537.40909129</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>43.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10243,17 +9709,11 @@
         <v>-65443537.40909129</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>43.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10282,17 +9742,11 @@
         <v>-65443537.40909129</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>43.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10321,17 +9775,11 @@
         <v>-65537381.7766913</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>43.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10360,17 +9808,11 @@
         <v>-65551043.2269913</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>43.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10399,17 +9841,11 @@
         <v>-65551043.2269913</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>43.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10438,17 +9874,11 @@
         <v>-65551043.2269913</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>43.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10477,17 +9907,11 @@
         <v>-65487305.4703913</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>43.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10516,17 +9940,11 @@
         <v>-65487305.4703913</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>43.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10555,17 +9973,11 @@
         <v>-65487505.4703913</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>43.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10594,17 +10006,11 @@
         <v>-65487455.5980913</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>43.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10633,17 +10039,11 @@
         <v>-65511806.1781913</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>43.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10672,17 +10072,11 @@
         <v>-65510846.1781913</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>43.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10711,17 +10105,11 @@
         <v>-65515846.1781913</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>43.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10750,17 +10138,11 @@
         <v>-65541548.16569129</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>43.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10789,17 +10171,11 @@
         <v>-65541950.98909129</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>43.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10828,17 +10204,11 @@
         <v>-65541950.98909129</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>43.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10867,17 +10237,11 @@
         <v>-65565160.25739129</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>43.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10906,17 +10270,11 @@
         <v>-65565160.25739129</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>43.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10945,17 +10303,11 @@
         <v>-65603356.21659129</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>43.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10984,17 +10336,11 @@
         <v>-65603356.21659129</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>42.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11023,17 +10369,11 @@
         <v>-65640897.46429129</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>42.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11062,17 +10402,11 @@
         <v>-65678696.77139129</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>42.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11101,17 +10435,11 @@
         <v>-65678696.77139129</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>42.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11140,17 +10468,11 @@
         <v>-65678696.77139129</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>42.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11179,17 +10501,11 @@
         <v>-65678696.77139129</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>42.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11218,17 +10534,11 @@
         <v>-65678593.61447392</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>42.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11257,17 +10567,11 @@
         <v>-65687374.23697393</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>43.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11296,17 +10600,11 @@
         <v>-65680804.49077392</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>42.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11335,17 +10633,11 @@
         <v>-65680804.49077392</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>43.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11374,17 +10666,11 @@
         <v>-65681311.45507392</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>43.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11413,17 +10699,11 @@
         <v>-65681297.74127392</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>42.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11452,17 +10732,11 @@
         <v>-65692690.07897393</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>43.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11491,17 +10765,11 @@
         <v>-65692690.07897393</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>42.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11530,17 +10798,11 @@
         <v>-65689845.56457393</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>42.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11569,17 +10831,11 @@
         <v>-65689845.56457393</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>43.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11612,11 +10868,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11649,11 +10901,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11686,11 +10934,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11719,17 +10963,11 @@
         <v>-65690116.92167393</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>42.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11762,11 +11000,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11799,11 +11033,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11836,11 +11066,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11873,11 +11099,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11910,11 +11132,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11947,11 +11165,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11984,11 +11198,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12021,11 +11231,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12058,11 +11264,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12095,11 +11297,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12132,11 +11330,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12169,11 +11363,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12206,11 +11396,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12243,11 +11429,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12280,11 +11462,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12317,11 +11495,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12354,11 +11528,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12391,11 +11561,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12428,11 +11594,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12465,11 +11627,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12502,11 +11660,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12539,11 +11693,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12576,11 +11726,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12613,11 +11759,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12650,11 +11792,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12687,11 +11825,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12724,11 +11858,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12761,11 +11891,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12798,11 +11924,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12835,11 +11957,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12872,11 +11990,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12909,11 +12023,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12946,11 +12056,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12983,11 +12089,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13020,11 +12122,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13057,11 +12155,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13094,11 +12188,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13131,11 +12221,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13168,11 +12254,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13205,11 +12287,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13242,11 +12320,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13279,11 +12353,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13316,11 +12386,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13353,11 +12419,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13390,11 +12452,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13427,11 +12485,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13464,11 +12518,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13501,11 +12551,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13538,11 +12584,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13575,11 +12617,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13612,11 +12650,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13649,11 +12683,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13686,11 +12716,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13723,11 +12749,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13756,17 +12778,11 @@
         <v>-65951614.06127395</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>42.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13795,17 +12811,11 @@
         <v>-65953864.06127395</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>42.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13834,17 +12844,11 @@
         <v>-65953864.06127395</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>42.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13873,17 +12877,11 @@
         <v>-65953864.06127395</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>42.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13912,17 +12910,11 @@
         <v>-65953864.06127395</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>42.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13951,17 +12943,11 @@
         <v>-65916387.51577395</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>42.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13990,17 +12976,11 @@
         <v>-65916387.51577395</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>42.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14029,17 +13009,11 @@
         <v>-65913861.72207395</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>42.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14068,17 +13042,11 @@
         <v>-65913861.72207395</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>42.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14111,11 +13079,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14148,11 +13112,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14185,11 +13145,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14222,11 +13178,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14259,11 +13211,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14296,11 +13244,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14333,11 +13277,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14370,11 +13310,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14407,11 +13343,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14444,11 +13376,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14481,11 +13409,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14518,11 +13442,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14555,11 +13475,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14592,11 +13508,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14629,11 +13541,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14666,11 +13574,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14703,11 +13607,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14740,11 +13640,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14777,11 +13673,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14814,11 +13706,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14851,11 +13739,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14888,11 +13772,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14925,11 +13805,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14962,11 +13838,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14999,11 +13871,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15036,11 +13904,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15073,11 +13937,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15110,11 +13970,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15147,11 +14003,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15184,11 +14036,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15221,11 +14069,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15258,11 +14102,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15295,11 +14135,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15332,11 +14168,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15369,11 +14201,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15406,11 +14234,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15443,11 +14267,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15480,11 +14300,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15517,11 +14333,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15554,11 +14366,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15591,11 +14399,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15628,11 +14432,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15665,11 +14465,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15702,11 +14498,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15739,11 +14531,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15776,11 +14564,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15813,11 +14597,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15850,11 +14630,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15887,11 +14663,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15924,11 +14696,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15961,11 +14729,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15998,11 +14762,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16035,11 +14795,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16072,11 +14828,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16109,11 +14861,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16146,11 +14894,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16183,17 +14927,13 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
       <c r="M436" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest ADA.xlsx
+++ b/BackTest/2020-01-15 BackTest ADA.xlsx
@@ -1837,7 +1837,7 @@
         <v>77194.87244607002</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>65827.11564607001</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>140081.36594607</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>230517.77548794</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>181914.06668794</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>181455.29428794</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-775605.8695613901</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-765605.8695613901</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-768005.8695613901</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-761417.3695613901</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-803884.5530613902</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-838134.5667613902</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-838612.9032613902</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-838612.9032613902</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-838512.9032613902</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-839074.6045613901</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-827120.4331613901</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-521022.4719613901</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-644012.5732613901</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-644766.0667613901</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-644766.0667613901</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-644337.1233613901</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-644793.7568613901</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-644793.7568613901</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-811953.5375613901</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-990779.4838613902</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-988455.0676613902</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-988455.0676613902</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-988455.0676613902</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-990392.7321613901</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-990392.7321613901</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-990392.7321613901</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-998466.7321613901</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-998466.7321613901</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-998406.7321613901</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-987406.7321613901</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-999696.4230613902</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-999696.4230613902</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-999044.4230613902</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-1001850.42306139</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-988686.2355613902</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-988686.2355613902</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-980766.2216613902</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-63406717.27136139</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-63412819.40906139</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-64714342.35823585</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5929,11 +5929,17 @@
         <v>-64690386.72519361</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>42.3</v>
+      </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5962,11 +5968,17 @@
         <v>-64688026.00753545</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>42.21</v>
+      </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +6007,17 @@
         <v>-64710194.00743545</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>42.36</v>
+      </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6028,11 +6046,17 @@
         <v>-64710194.00743545</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>42.24</v>
+      </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6061,11 +6085,17 @@
         <v>-64710194.00743545</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>42.24</v>
+      </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6102,7 +6132,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L173" t="n">
@@ -6211,9 +6241,11 @@
         <v>-64888974.90533545</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>42.38</v>
+      </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
@@ -6248,9 +6280,11 @@
         <v>-64888974.90533545</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>42.21</v>
+      </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -6324,9 +6358,11 @@
         <v>-64894938.37073544</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>42.23</v>
+      </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
@@ -6361,9 +6397,11 @@
         <v>-64866273.03723545</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>42.22</v>
+      </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
@@ -6476,9 +6514,11 @@
         <v>-64866136.24783545</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>42.23</v>
+      </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
@@ -6513,16 +6553,20 @@
         <v>-64893201.69343545</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>42.38</v>
+      </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
       <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
@@ -6548,11 +6592,17 @@
         <v>-64893201.69343545</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>42.22</v>
+      </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6581,11 +6631,17 @@
         <v>-64893201.69343545</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>42.22</v>
+      </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6614,11 +6670,17 @@
         <v>-65130622.13343545</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>42.22</v>
+      </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6647,11 +6709,17 @@
         <v>-65130622.13343545</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>42.21</v>
+      </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6680,11 +6748,17 @@
         <v>-65130622.13343545</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>42.21</v>
+      </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6713,11 +6787,17 @@
         <v>-65129423.23673545</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>42.21</v>
+      </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6746,11 +6826,17 @@
         <v>-65163235.75303545</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>42.22</v>
+      </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6779,11 +6865,17 @@
         <v>-65163235.75303545</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>42.21</v>
+      </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6812,11 +6904,17 @@
         <v>-65262366.67113545</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>42.21</v>
+      </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6845,11 +6943,17 @@
         <v>-65262366.67113545</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>42.2</v>
+      </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6878,11 +6982,17 @@
         <v>-65262366.67113545</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>42.2</v>
+      </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6911,11 +7021,17 @@
         <v>-65280759.67113545</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>42.2</v>
+      </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6944,11 +7060,17 @@
         <v>-65248725.59220708</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>42.16</v>
+      </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6985,7 +7107,7 @@
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L198" t="n">
@@ -7055,9 +7177,11 @@
         <v>-65307199.73420708</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>42.4</v>
+      </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
@@ -7324,9 +7448,11 @@
         <v>-65258046.34748118</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>42.4</v>
+      </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
@@ -7361,9 +7487,11 @@
         <v>-65218877.27308118</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>42.4</v>
+      </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
@@ -7398,9 +7526,11 @@
         <v>-65218935.27308118</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>42.43</v>
+      </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
@@ -7513,16 +7643,18 @@
         <v>-65277501.90911862</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
       <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
@@ -7552,7 +7684,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7586,10 +7722,12 @@
       <c r="I214" t="n">
         <v>42.3</v>
       </c>
-      <c r="J214" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7618,15 +7756,15 @@
         <v>-65283188.28911863</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
         <v>42.3</v>
       </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L215" t="n">
@@ -7660,12 +7798,10 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>42.3</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L216" t="n">
@@ -7700,7 +7836,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7733,7 +7873,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7766,7 +7910,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7799,7 +7947,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7832,7 +7984,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7865,7 +8021,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7894,11 +8054,17 @@
         <v>-65194425.45755607</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>42.37</v>
+      </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7927,11 +8093,17 @@
         <v>-65189425.45755607</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>42.48</v>
+      </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7964,7 +8136,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7997,7 +8173,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8030,7 +8210,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8059,11 +8243,17 @@
         <v>-65197078.40525607</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>42.5</v>
+      </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8096,7 +8286,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8125,11 +8319,17 @@
         <v>-65197078.40525607</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>42.48</v>
+      </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8158,11 +8358,17 @@
         <v>-65195336.30080203</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>42.48</v>
+      </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8195,7 +8401,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8228,7 +8438,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8257,11 +8471,17 @@
         <v>-65296893.89963224</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>42.6</v>
+      </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8294,7 +8514,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8327,7 +8551,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8360,7 +8588,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8393,7 +8625,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8426,7 +8662,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8459,7 +8699,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8492,7 +8736,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8525,7 +8773,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8558,7 +8810,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8587,11 +8843,17 @@
         <v>-65357017.95971502</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>42.6</v>
+      </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8624,7 +8886,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8657,7 +8923,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8690,7 +8960,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8723,7 +8997,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8756,7 +9034,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8789,7 +9071,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8822,7 +9108,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8855,7 +9145,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8888,7 +9182,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8921,7 +9219,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8954,7 +9256,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8987,7 +9293,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9020,7 +9330,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9053,7 +9367,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9086,7 +9404,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9119,7 +9441,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9152,7 +9478,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9185,7 +9515,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9218,7 +9552,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9247,14 +9585,16 @@
         <v>-65458108.5023913</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
@@ -9280,7 +9620,7 @@
         <v>-65456255.8957913</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9313,7 +9653,7 @@
         <v>-65454142.0205913</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9346,7 +9686,7 @@
         <v>-65453682.63129129</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9379,7 +9719,7 @@
         <v>-65408833.26629129</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9412,7 +9752,7 @@
         <v>-65408833.26629129</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9445,7 +9785,7 @@
         <v>-65408833.26629129</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9478,7 +9818,7 @@
         <v>-65418833.26629129</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9511,7 +9851,7 @@
         <v>-65418833.26629129</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9544,7 +9884,7 @@
         <v>-65413090.15749129</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9577,7 +9917,7 @@
         <v>-65413090.15749129</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9610,7 +9950,7 @@
         <v>-65409551.61099129</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9643,7 +9983,7 @@
         <v>-65443537.40909129</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9676,7 +10016,7 @@
         <v>-65443537.40909129</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9709,7 +10049,7 @@
         <v>-65443537.40909129</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9742,7 +10082,7 @@
         <v>-65443537.40909129</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9775,7 +10115,7 @@
         <v>-65537381.7766913</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9808,7 +10148,7 @@
         <v>-65551043.2269913</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9841,7 +10181,7 @@
         <v>-65551043.2269913</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9874,7 +10214,7 @@
         <v>-65551043.2269913</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9907,7 +10247,7 @@
         <v>-65487305.4703913</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9940,7 +10280,7 @@
         <v>-65487305.4703913</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9973,7 +10313,7 @@
         <v>-65487505.4703913</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10006,7 +10346,7 @@
         <v>-65487455.5980913</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10039,7 +10379,7 @@
         <v>-65511806.1781913</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10072,7 +10412,7 @@
         <v>-65510846.1781913</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10105,7 +10445,7 @@
         <v>-65515846.1781913</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10138,7 +10478,7 @@
         <v>-65541548.16569129</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10171,7 +10511,7 @@
         <v>-65541950.98909129</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10204,7 +10544,7 @@
         <v>-65541950.98909129</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10237,7 +10577,7 @@
         <v>-65565160.25739129</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10270,7 +10610,7 @@
         <v>-65565160.25739129</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10303,7 +10643,7 @@
         <v>-65603356.21659129</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10336,7 +10676,7 @@
         <v>-65603356.21659129</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10369,7 +10709,7 @@
         <v>-65640897.46429129</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10402,7 +10742,7 @@
         <v>-65678696.77139129</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10567,7 +10907,7 @@
         <v>-65687374.23697393</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10864,7 +11204,7 @@
         <v>-65689845.56457393</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11656,7 +11996,7 @@
         <v>-65473973.11557394</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11689,7 +12029,7 @@
         <v>-65472776.24827394</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11722,7 +12062,7 @@
         <v>-65481594.73277394</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11821,7 +12161,7 @@
         <v>-65474303.23527394</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11854,7 +12194,7 @@
         <v>-65468441.47997394</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11887,7 +12227,7 @@
         <v>-65471791.44567394</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11920,7 +12260,7 @@
         <v>-65470996.38637394</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11953,7 +12293,7 @@
         <v>-65469576.60767394</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11986,7 +12326,7 @@
         <v>-65469576.60767394</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12019,7 +12359,7 @@
         <v>-65492620.83047394</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12052,7 +12392,7 @@
         <v>-65493859.95477395</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12085,7 +12425,7 @@
         <v>-65492811.21827395</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12118,7 +12458,7 @@
         <v>-65519910.41707394</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12151,7 +12491,7 @@
         <v>-65547069.19557394</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12184,7 +12524,7 @@
         <v>-65362424.02687394</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12217,7 +12557,7 @@
         <v>-65677629.25617394</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12250,7 +12590,7 @@
         <v>-65677629.25617394</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12283,7 +12623,7 @@
         <v>-65602802.25417394</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12316,7 +12656,7 @@
         <v>-65594573.19517394</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12349,7 +12689,7 @@
         <v>-65594573.19517394</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12382,7 +12722,7 @@
         <v>-65696812.74067394</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12415,7 +12755,7 @@
         <v>-65760536.05337395</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12448,7 +12788,7 @@
         <v>-65957685.19087395</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12481,7 +12821,7 @@
         <v>-65957685.19087395</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12547,7 +12887,7 @@
         <v>-65916458.99427395</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12580,7 +12920,7 @@
         <v>-65914284.05007395</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12613,7 +12953,7 @@
         <v>-65930610.46127395</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12646,7 +12986,7 @@
         <v>-65940084.06127395</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12679,7 +13019,7 @@
         <v>-65939564.06127395</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12712,7 +13052,7 @@
         <v>-65951614.06127395</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13042,7 +13382,7 @@
         <v>-65913861.72207395</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13075,7 +13415,7 @@
         <v>-65917024.31517395</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13405,7 +13745,7 @@
         <v>-65931018.64067396</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13438,7 +13778,7 @@
         <v>-65928970.95687396</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13471,7 +13811,7 @@
         <v>-65928970.95687396</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13504,7 +13844,7 @@
         <v>-65929529.25377396</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13537,7 +13877,7 @@
         <v>-65931251.10197396</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13636,7 +13976,7 @@
         <v>-65915965.01467396</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13669,7 +14009,7 @@
         <v>-65915421.78107396</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13735,7 +14075,7 @@
         <v>-65884867.51717395</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13768,7 +14108,7 @@
         <v>-65864867.51717395</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13933,7 +14273,7 @@
         <v>-65834594.16027395</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13966,7 +14306,7 @@
         <v>-65834395.41367395</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14131,7 +14471,7 @@
         <v>-65838174.18387395</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14164,7 +14504,7 @@
         <v>-65828573.52587395</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14197,7 +14537,7 @@
         <v>-65773241.77147395</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14230,7 +14570,7 @@
         <v>-65627222.24147395</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14263,7 +14603,7 @@
         <v>-65633069.92717395</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14296,7 +14636,7 @@
         <v>-65628936.97270633</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14329,7 +14669,7 @@
         <v>-65626990.78480633</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14362,7 +14702,7 @@
         <v>-65659338.00050633</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14395,7 +14735,7 @@
         <v>-65659338.00050633</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14428,7 +14768,7 @@
         <v>-66006802.45630633</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14461,7 +14801,7 @@
         <v>-65926288.46206633</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14494,7 +14834,7 @@
         <v>-65926720.59506633</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14527,7 +14867,7 @@
         <v>-65962268.50466633</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14560,7 +14900,7 @@
         <v>-65962268.50466633</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14593,7 +14933,7 @@
         <v>-65900484.98824014</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14626,7 +14966,7 @@
         <v>-65952733.01974013</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14659,7 +14999,7 @@
         <v>-65928468.49604014</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14692,7 +15032,7 @@
         <v>-65928468.49604014</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14725,7 +15065,7 @@
         <v>-65917507.92804013</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14758,7 +15098,7 @@
         <v>-66016789.65084013</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14791,7 +15131,7 @@
         <v>-66090436.45014013</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14824,7 +15164,7 @@
         <v>-66119205.18204013</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14857,7 +15197,7 @@
         <v>-66044946.68584013</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14890,7 +15230,7 @@
         <v>-66045728.02914013</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14923,7 +15263,7 @@
         <v>-66042919.49964013</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
